--- a/spc/results/t01/M_0.25_k_0.05/omp_GAUSSIAN_20dB/omp_residuals_run_1.xlsx
+++ b/spc/results/t01/M_0.25_k_0.05/omp_GAUSSIAN_20dB/omp_residuals_run_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A205"/>
+  <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,606 +860,6 @@
         <v>183.6266959494696</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>182.1533311634337</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>180.6906116373047</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>179.1304186460035</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>177.6608878258969</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>176.1437547674064</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>174.4793524267662</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>173.0454789878375</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>171.7250706518189</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>170.2343252295486</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>168.8883343607795</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>167.5387217107292</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>166.2638329063548</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>164.9497465313416</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>163.5295001418306</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>162.3245981855504</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>161.0284233844852</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>159.6131518995159</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>158.2429605052108</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>156.7031407771762</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>155.5466276894603</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>154.424060993549</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>153.4419121490415</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>152.2461210853093</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>151.2052844263907</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>150.0163327241536</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>148.8319800052258</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>147.8330343480239</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>146.7437051292394</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>145.7100469667687</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>144.6411817519991</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>143.5675904133325</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>142.4251746897282</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>141.32776519219</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>140.1339736771418</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>139.0187084999104</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>137.8046833011669</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>136.6801008145953</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>135.6091421776002</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>134.6593717077191</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>133.6574090512273</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>132.6359506325707</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>131.720462769678</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>130.714127659903</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>129.7995254322638</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>128.879760180395</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>127.9624803040077</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>127.1423110740608</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>126.3703875086174</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>125.5670828263446</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>124.7459481097532</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>123.8963973088187</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>123.1448701468412</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>122.3545809824419</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>121.6159727814922</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>120.8563262690663</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>120.098408901474</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>119.4004749919892</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>118.5398082384455</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>117.699272582797</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>116.93844839144</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>116.1827708777846</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>115.5909197396413</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>114.9499483923191</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>114.237880285328</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>113.542717729954</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>112.9296524030758</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>112.2176437400764</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>111.5132326580899</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>110.8067051336192</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>110.1605400698486</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>109.5528915608042</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>109.0146285660903</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>108.407186114599</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>107.7847882260614</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>107.1591351715796</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>106.622087734507</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>106.033547533118</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>105.3607510498739</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>104.8158909680515</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>104.1978747522075</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>103.6540700164402</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>103.076737966323</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>102.4343237090469</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>101.9054810668481</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>101.3033831383254</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>100.7341793792601</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>100.1585313545595</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>99.56097146594011</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>98.974859446784</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>98.35896460418071</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>97.7914644577281</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>97.24909177903939</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>96.71291946753217</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>96.09722949638969</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>95.5117843373111</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>95.01258050590303</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>94.4068343335216</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>93.80192711118956</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>93.25939377731314</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>92.73288899349041</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>92.13230596611238</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>91.58434284321477</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>91.04092410244407</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>90.44873357740201</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>89.88538308921751</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>89.36110950185935</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>88.79172661915828</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>88.28878519718347</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>87.79589892108346</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>87.30482411541377</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>86.81815295018941</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>86.36494258434512</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>85.89520724797617</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>85.48165056870556</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>84.98389741165472</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>84.48395976580635</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>84.0442457719281</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>83.61343972293145</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>83.15154976001892</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>82.69533187335503</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
